--- a/src/main/resources/ru/avem/posshop/app/protocol1RotorBlade.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocol1RotorBlade.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Стенд для испытания ПОС лопасти несущего винта изд. «260-2901-00»</t>
   </si>
@@ -72,28 +72,34 @@
     <t>#OPERATOR#</t>
   </si>
   <si>
+    <t>1 секция</t>
+  </si>
+  <si>
+    <t>2 секция</t>
+  </si>
+  <si>
+    <t>3 секция</t>
+  </si>
+  <si>
+    <t>4 секция</t>
+  </si>
+  <si>
+    <t>5 секция</t>
+  </si>
+  <si>
+    <t>6 секция</t>
+  </si>
+  <si>
+    <t>Графики</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Температура, °C</t>
+  </si>
+  <si>
     <t>секунд</t>
-  </si>
-  <si>
-    <t>1 секция</t>
-  </si>
-  <si>
-    <t>2 секция</t>
-  </si>
-  <si>
-    <t>3 секция</t>
-  </si>
-  <si>
-    <t>4 секция</t>
-  </si>
-  <si>
-    <t>5 секция</t>
-  </si>
-  <si>
-    <t>6 секция</t>
-  </si>
-  <si>
-    <t>Графики</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,31 +193,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -226,17 +260,41 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A184" zoomScale="85" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -665,428 +723,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="9"/>
-      <c r="AG1" s="11" t="s">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="3"/>
+      <c r="AG1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="12"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="6"/>
     </row>
     <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
     </row>
     <row r="8" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
     </row>
     <row r="9" spans="1:38" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
     </row>
     <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
     </row>
     <row r="11" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
     </row>
     <row r="12" spans="1:38" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
     </row>
     <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="Z14" s="13"/>
-      <c r="AC14" s="14"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+    </row>
+    <row r="14" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
     </row>
     <row r="15" spans="1:38" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I14:AL15"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:AL8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:AL9"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="H13:AL13"/>
-    <mergeCell ref="I15:AL15"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="H10:AL10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="H11:AL11"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="H12:AL12"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:AL9"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="46" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/ru/avem/posshop/app/protocol1RotorBlade.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocol1RotorBlade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$214</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$789</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$300</definedName>
   </definedNames>
   <calcPr calcId="0" calcMode="manual" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Стенд для испытания ПОС лопасти несущего винта изд. «260-2901-00»</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>#NUMBER_PRODUCT#</t>
+  </si>
+  <si>
+    <t>Напряжение, В</t>
+  </si>
+  <si>
+    <t>Ток, А</t>
+  </si>
+  <si>
+    <t>Наименование тех.процесса:</t>
+  </si>
+  <si>
+    <t>Шифр:</t>
+  </si>
+  <si>
+    <t>Производственный номер:</t>
+  </si>
+  <si>
+    <t>Мастер:</t>
+  </si>
+  <si>
+    <t>Контролер:</t>
+  </si>
+  <si>
+    <t>Дата:</t>
   </si>
 </sst>
 </file>
@@ -290,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +349,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -337,38 +391,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,20 +784,20 @@
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="16" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -787,169 +820,185 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="15" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="9"/>
       <c r="I7" s="7"/>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="15" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="9"/>
       <c r="I8" s="7"/>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="15" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="15" t="s">
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -973,20 +1022,50 @@
       <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="H15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B14:G14"/>
+  <mergeCells count="22">
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="P9:S9"/>
     <mergeCell ref="L9:O9"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="P7:S7"/>
@@ -996,6 +1075,14 @@
     <mergeCell ref="P8:S8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="H14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="36" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1008,10 +1095,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A187" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Z297" sqref="Z297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,55 +1109,623 @@
     <col min="1" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="I47" s="14"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="I97" s="15"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B145" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B146" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B147" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="I147" s="15"/>
+      <c r="K147" s="31"/>
+      <c r="L147" s="31"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B148" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I149" s="31"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B193" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B194" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B195" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B196" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B197" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="I197" s="15"/>
+      <c r="K197" s="31"/>
+      <c r="L197" s="31"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B198" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B199" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I199" s="31"/>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B243" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="30"/>
+      <c r="G243" s="30"/>
+      <c r="H243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B244" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="30"/>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B245" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+      <c r="E245" s="30"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B246" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="30"/>
+      <c r="D246" s="30"/>
+      <c r="E246" s="30"/>
+      <c r="F246" s="30"/>
+      <c r="G246" s="30"/>
+      <c r="H246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B247" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="I247" s="15"/>
+      <c r="K247" s="31"/>
+      <c r="L247" s="31"/>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B248" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="30"/>
+      <c r="F248" s="30"/>
+      <c r="G248" s="30"/>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B249" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="30"/>
+      <c r="F249" s="30"/>
+      <c r="G249" s="30"/>
+      <c r="H249" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I249" s="31"/>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C293" s="30"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="30"/>
+      <c r="F293" s="30"/>
+      <c r="G293" s="30"/>
+      <c r="H293" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B294" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C294" s="30"/>
+      <c r="D294" s="30"/>
+      <c r="E294" s="30"/>
+      <c r="F294" s="30"/>
+      <c r="G294" s="30"/>
+      <c r="H294" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C295" s="30"/>
+      <c r="D295" s="30"/>
+      <c r="E295" s="30"/>
+      <c r="F295" s="30"/>
+      <c r="G295" s="30"/>
+      <c r="H295" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="30"/>
+      <c r="G296" s="30"/>
+      <c r="H296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="30"/>
+      <c r="I297" s="15"/>
+      <c r="K297" s="31"/>
+      <c r="L297" s="31"/>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B298" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30"/>
+      <c r="G298" s="30"/>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="30"/>
+      <c r="H299" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I299" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B14:G14"/>
+  <mergeCells count="54">
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B196:G196"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="B198:G198"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="B244:G244"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="B246:G246"/>
+    <mergeCell ref="B247:G247"/>
+    <mergeCell ref="K297:L297"/>
+    <mergeCell ref="K247:L247"/>
+    <mergeCell ref="B248:G248"/>
+    <mergeCell ref="B249:G249"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="B293:G293"/>
+    <mergeCell ref="B298:G298"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="B294:G294"/>
+    <mergeCell ref="B295:G295"/>
+    <mergeCell ref="B296:G296"/>
+    <mergeCell ref="B297:G297"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="59" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="17" manualBreakCount="17">
-    <brk id="43" max="16383" man="1"/>
-    <brk id="87" max="16383" man="1"/>
-    <brk id="131" max="16383" man="1"/>
-    <brk id="175" max="16383" man="1"/>
-    <brk id="219" max="16383" man="1"/>
-    <brk id="263" max="16383" man="1"/>
-    <brk id="307" max="16383" man="1"/>
-    <brk id="351" max="16383" man="1"/>
-    <brk id="395" max="16383" man="1"/>
-    <brk id="437" max="18" man="1"/>
-    <brk id="481" max="18" man="1"/>
-    <brk id="525" max="18" man="1"/>
-    <brk id="569" max="18" man="1"/>
-    <brk id="613" max="18" man="1"/>
-    <brk id="657" max="18" man="1"/>
-    <brk id="701" max="18" man="1"/>
-    <brk id="745" max="18" man="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="50" max="18" man="1"/>
+    <brk id="100" max="18" man="1"/>
+    <brk id="150" max="18" man="1"/>
+    <brk id="200" max="18" man="1"/>
+    <brk id="250" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>